--- a/src/Huddle Daten IT SGKB.xlsx
+++ b/src/Huddle Daten IT SGKB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/SGKB/Organisation und Prozesse/Huddle/Huddle Webserver Zeitreihe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/SGKB/Organisation und Prozesse/Huddle/Huddle-Zeitreihe/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{6743CB6F-7222-47CD-A33C-F12676D0FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8466FDA-E263-4887-8A82-8A8C7F86F7FF}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{6743CB6F-7222-47CD-A33C-F12676D0FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C18433C-B37A-4A5A-990D-8B86A34A50D4}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="345" windowWidth="27750" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E323746E-DEBE-40A9-9623-4C431CD1A291}">
   <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Huddle Daten IT SGKB.xlsx
+++ b/src/Huddle Daten IT SGKB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/SGKB/Organisation und Prozesse/Huddle/Huddle-Zeitreihe/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5886d29109ffb19e/Documents/SGKB/Organisation und Prozesse/Huddle/Huddle Webserver Zeitreihe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{6743CB6F-7222-47CD-A33C-F12676D0FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C18433C-B37A-4A5A-990D-8B86A34A50D4}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{6743CB6F-7222-47CD-A33C-F12676D0FFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8466FDA-E263-4887-8A82-8A8C7F86F7FF}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="345" windowWidth="27750" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E323746E-DEBE-40A9-9623-4C431CD1A291}">
   <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="K165" sqref="K165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
